--- a/package_401/data/api_test2.xlsx
+++ b/package_401/data/api_test2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28245"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -43,6 +43,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
@@ -53,51 +61,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -119,28 +82,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -164,8 +105,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -176,6 +139,57 @@
       <color theme="3"/>
       <sz val="18"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="35">
@@ -205,19 +219,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,25 +237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +261,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,73 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,8 +410,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,73 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,10 +512,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="21" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="19" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -510,16 +524,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -528,119 +542,119 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="15" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="31" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="31" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="22" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,16 +671,22 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1045,7 @@
       <selection activeCell="I23" pane="bottomRight" sqref="I23:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
     <col customWidth="1" max="2" min="2" style="1" width="10.375"/>
@@ -1194,7 +1214,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1256,7 +1276,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1323,7 +1343,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1387,7 +1407,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1451,7 +1471,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1518,7 +1538,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1536,7 +1556,7 @@
       <c r="I7" s="1" t="n">
         <v>13912541274</v>
       </c>
-      <c r="S7" s="9" t="inlineStr">
+      <c r="S7" s="10" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
@@ -1587,7 +1607,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1654,7 +1674,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1721,7 +1741,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1783,7 +1803,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1842,7 +1862,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -1901,7 +1921,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>/member/login</t>
         </is>
@@ -3234,7 +3254,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3302,7 +3322,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F35" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -3367,7 +3387,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F36" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3432,7 +3452,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3497,7 +3517,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3562,7 +3582,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="F39" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3630,7 +3650,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F40" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3698,7 +3718,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F41" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3766,7 +3786,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="F42" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3834,7 +3854,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F43" s="8" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3902,7 +3922,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F44" s="8" t="inlineStr">
+      <c r="F44" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -3970,7 +3990,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F45" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4038,7 +4058,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F46" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4106,7 +4126,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F47" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4127,7 +4147,7 @@
       <c r="Q47" s="1" t="n">
         <v>66666.60000000001</v>
       </c>
-      <c r="R47" s="9" t="inlineStr">
+      <c r="R47" s="10" t="inlineStr">
         <is>
           <t>123456789123456789</t>
         </is>
@@ -4176,7 +4196,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F48" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4197,7 +4217,7 @@
       <c r="Q48" s="1" t="n">
         <v>66666.60000000001</v>
       </c>
-      <c r="R48" s="9" t="inlineStr">
+      <c r="R48" s="10" t="inlineStr">
         <is>
           <t>12345678912345678912</t>
         </is>
@@ -4246,7 +4266,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F49" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4314,7 +4334,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F50" s="8" t="inlineStr">
+      <c r="F50" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4385,7 +4405,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F51" s="8" t="inlineStr">
+      <c r="F51" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4453,7 +4473,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F52" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4529,7 +4549,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
+      <c r="F53" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4605,7 +4625,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4681,7 +4701,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="F55" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4757,7 +4777,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="F56" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4833,7 +4853,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="F57" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4903,7 +4923,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="F58" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -4973,7 +4993,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="F59" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -5043,7 +5063,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F60" s="9" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
@@ -5113,7 +5133,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F61" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5195,7 +5215,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F62" s="8" t="inlineStr">
+      <c r="F62" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5274,7 +5294,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F63" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5351,7 +5371,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="F64" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5430,7 +5450,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="F65" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5509,7 +5529,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="F66" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5588,7 +5608,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F67" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5667,7 +5687,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F68" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5746,7 +5766,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F69" s="8" t="inlineStr">
+      <c r="F69" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5825,7 +5845,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F70" s="8" t="inlineStr">
+      <c r="F70" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5907,7 +5927,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F71" s="8" t="inlineStr">
+      <c r="F71" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -5989,7 +6009,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="F72" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6071,7 +6091,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="F73" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6153,7 +6173,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F74" s="8" t="inlineStr">
+      <c r="F74" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6235,7 +6255,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F75" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6317,7 +6337,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F76" s="8" t="inlineStr">
+      <c r="F76" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6399,7 +6419,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="F77" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6481,7 +6501,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F78" s="8" t="inlineStr">
+      <c r="F78" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6563,7 +6583,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F79" s="8" t="inlineStr">
+      <c r="F79" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6645,7 +6665,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F80" s="8" t="inlineStr">
+      <c r="F80" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6727,7 +6747,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F81" s="8" t="inlineStr">
+      <c r="F81" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6811,7 +6831,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F82" s="8" t="inlineStr">
+      <c r="F82" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6893,7 +6913,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F83" s="8" t="inlineStr">
+      <c r="F83" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -6977,7 +6997,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F84" s="8" t="inlineStr">
+      <c r="F84" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -7061,7 +7081,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F85" s="8" t="inlineStr">
+      <c r="F85" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -7145,7 +7165,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F86" s="8" t="inlineStr">
+      <c r="F86" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -7229,7 +7249,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="F87" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -7313,7 +7333,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F88" s="8" t="inlineStr">
+      <c r="F88" s="9" t="inlineStr">
         <is>
           <t>/member/add</t>
         </is>
@@ -7375,93 +7395,180 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId174"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7480,7 +7587,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="10.375"/>
     <col customWidth="1" max="3" min="3" style="2" width="29.625"/>
@@ -7604,7 +7711,7 @@
           <t>SELECT Fverify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #phone#</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
@@ -7670,7 +7777,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
@@ -7733,7 +7840,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
@@ -7796,7 +7903,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
@@ -7855,14 +7962,14 @@
       <selection activeCell="A1" sqref="A1"/>
       <selection activeCell="A1" pane="topRight" sqref="A1"/>
       <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M14" pane="bottomRight" sqref="M13:M14"/>
+      <selection activeCell="G7" pane="bottomRight" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="13.75"/>
     <col customWidth="1" max="3" min="3" style="2" width="17.125"/>
-    <col customWidth="1" max="4" min="4" style="2" width="13.75"/>
+    <col customWidth="1" max="4" min="4" style="2" width="14"/>
     <col customWidth="1" hidden="1" max="8" min="8" style="2" width="18.25"/>
     <col customWidth="1" hidden="1" max="9" min="9" style="2" width="6.5"/>
     <col customWidth="1" hidden="1" max="10" min="10" style="2" width="7.5"/>
@@ -7876,7 +7983,7 @@
     <col customWidth="1" max="20" min="20" style="2" width="15.125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
+    <row customFormat="1" r="1" s="6">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -8012,17 +8119,17 @@
           <t>SELECT Fverify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I2" s="7" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>{"client_ip": "0.0.0.0", "tmpl_id": "1", "mobile": "#unRegPhone#"}</t>
         </is>
       </c>
-      <c r="J2" s="7" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
@@ -8056,7 +8163,7 @@
       </c>
     </row>
     <row customFormat="1" r="3" s="1">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -8089,17 +8196,17 @@
           <t>SELECT Fuid as user_id from user_db.t_user_info where fuser_id = #user_id#</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
@@ -8169,17 +8276,17 @@
           <t>post</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="I4" s="8" t="inlineStr">
         <is>
           <t>{"user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "验证码错误"}</t>
         </is>
@@ -8244,17 +8351,17 @@
           <t>post</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "用户名错误"}</t>
         </is>
@@ -8320,17 +8427,17 @@
         </is>
       </c>
       <c r="F6" s="0" t="n"/>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="I6" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "渠道信息错误"}</t>
         </is>
@@ -8398,17 +8505,17 @@
         </is>
       </c>
       <c r="F7" s="0" t="n"/>
-      <c r="H7" s="6" t="inlineStr">
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "用户UID错误"}</t>
         </is>
@@ -8474,17 +8581,17 @@
         </is>
       </c>
       <c r="F8" s="0" t="n"/>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "ip": "0.0.0.0"}</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "手机号错误"}</t>
         </is>
@@ -8550,17 +8657,17 @@
         </is>
       </c>
       <c r="F9" s="0" t="n"/>
-      <c r="H9" s="6" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#"}</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>{"retCode": "19001", "retInfo": "IP地址错误"}</t>
         </is>
@@ -8619,7 +8726,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
     <col customWidth="1" max="12" min="12" style="2" width="10.375"/>
@@ -8764,7 +8871,7 @@
           <t>鞠大神</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
+      <c r="M2" s="10" t="inlineStr">
         <is>
           <t>321283199501245618</t>
         </is>
@@ -8789,7 +8896,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -8807,7 +8915,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
   </cols>
@@ -9655,16 +9763,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/package_401/data/api_test2.xlsx
+++ b/package_401/data/api_test2.xlsx
@@ -1045,7 +1045,7 @@
       <selection activeCell="I23" pane="bottomRight" sqref="I23:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
     <col customWidth="1" max="2" min="2" style="1" width="10.375"/>
@@ -7395,180 +7395,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7587,7 +7500,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="10.375"/>
     <col customWidth="1" max="3" min="3" style="2" width="29.625"/>
@@ -7965,7 +7878,7 @@
       <selection activeCell="G7" pane="bottomRight" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="13.75"/>
     <col customWidth="1" max="3" min="3" style="2" width="17.125"/>
@@ -8726,7 +8639,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
     <col customWidth="1" max="12" min="12" style="2" width="10.375"/>
@@ -8896,8 +8809,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -8915,7 +8827,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
   </cols>
@@ -9763,26 +9675,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
